--- a/info.xlsx
+++ b/info.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shannon.cap\Documents\GitHub\sistematizacion_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD8B49A-0A13-4652-9F4E-E07C8536FD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F40F08-24E8-42C4-BF10-D9A24507ACF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="735" windowWidth="15435" windowHeight="15465" xr2:uid="{F46115C4-AD7F-4302-BE6E-0AA369B82E4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F46115C4-AD7F-4302-BE6E-0AA369B82E4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="180">
   <si>
     <t>Sector</t>
   </si>
@@ -80,18 +81,12 @@
     <t>Hay que partir, ya que, por parte de la cooperación internacional, puesto que de esta parte ya se cuenta con la colaboración, y lograr los contactos necesarios, poder evaluar a nivel global y no solo lo regional y facilitar el conocimiento.</t>
   </si>
   <si>
-    <t>Recordar que todos los esfuerzos deben centrarse en las personas y no olvidar a los grupos vulnerables, es decir mujeres, niños, comunidades indiginas, es decir que nadie se quede atrás.</t>
-  </si>
-  <si>
     <t>Una ley especifica de ciberseguridad es muy importante, a pesar de que un marco de ley sea amplio, de protección, es necesario tener una ley especifica de ciberseguridad. Es un tema de alta prioridad porque por ejemplo tener un ciberataque en infraestructuras publicas seria letal, ya que la ciberdelincuencia no tiene fronteras, ya que, en alguna oportunidad en dos o tres gobiernos, existió una estrategia nacional de ciberseguridad que se trabajo conjunto a la OEA.</t>
   </si>
   <si>
     <t>La cooperación podrá apoyar con las investigaciones académicas, para que tengan una preparación más fuerte.</t>
   </si>
   <si>
-    <t>La importancia de saber manejar los contenidos, pues de que serviría que la gente logre adquirir internet, si solo se utiliza en contenido sin provecho, tendría que ser al contrario, seria bueno saber como llevar la afabetizacion digital para que la gente saque provecho de esta digitalización. Y saber si el sector privado sea tan interesante o invertir en las comunidades, puesto que en materia de negocio seria bueno investigar eso.</t>
-  </si>
-  <si>
     <t>Es importante fortalecer a los cuerpos de seguridad, y crear condiciones de infraestructura digital, se necesita mucho y en términos de la misma lógica del proceso de modernización, el tema de capital humano, es bueno pensar en que tipo de perfil profesional sería necesarios para abordar las necesidades.</t>
   </si>
   <si>
@@ -131,9 +126,6 @@
     <t>Exigir la actualización de datos y desde allí se pueda dar la ciberseguridad</t>
   </si>
   <si>
-    <t xml:space="preserve">Liberta de expresión </t>
-  </si>
-  <si>
     <t>Tener insumos de lo que se necesita, al final las sociedades civiles somos los beneficiarios, tener a la vista las decisiones de políticas publicas relacionada a la ciberseguridad.</t>
   </si>
   <si>
@@ -206,69 +198,9 @@
     <t>Concientizar y sensibilizar sobre la importancia de ciberseguridad</t>
   </si>
   <si>
-    <t>Implementar el acceso a la electricididad, equipo tecnologico e internet en los departamentos del interior del pais.</t>
-  </si>
-  <si>
-    <t>Como estudiantes podriamos contribuir en la formaciòn de ciberseguridad. (concienciaciòns, infografias, capacitaciones, entre otros.)</t>
-  </si>
-  <si>
-    <t>Llevar estos dialogos a los departamentos del interior del paìs, asimismo, buscar alianzas internacionales, con el objetivo de promover la eduaciòn en temas de ciberseguridad.</t>
-  </si>
-  <si>
-    <t>Implementar un sistema para poder digitalizar la informaciòn, crear bases de datos, fomentar la ciberseguridad y la digitalizaciòn. CCDA.</t>
-  </si>
-  <si>
-    <t>Alianzas del sector pùblico y academicos para contribuir a la educaciòn en temas de ciberseguridad, permitiendo que sen impartido en los diferentes sectores estudiantiles y poblaciòn en general.</t>
-  </si>
-  <si>
-    <t>Proteger los datos de la poblaciòn con el objetivo de ser vìctimas de algun tipo de delito. Ademàs, abrir màs espacios las comunidades rurales e indigenas con el fin de expandir dichos temas.</t>
-  </si>
-  <si>
-    <t>Accesibilidad a la informaciòn, debe de ser transparante el proceso, fomentar e incluir a la poblaciòn.</t>
-  </si>
-  <si>
-    <t>SBX, podrìa contribuir en talleres enfocados a los estudiantes, COCODES, entre otros, en temas de ciberseguridad; resaltando a la poblaciòn de las tercera edad quienes son considerados como los màs vulnerables en dichos temas. Ademàs, buscar apoyo internacional.</t>
-  </si>
-  <si>
-    <t>Transparencia por parte del Gobierno, brindar la informaciòn de lo que se esta trabajando. Trabajar en conjunto con la sociedad civil.</t>
-  </si>
-  <si>
-    <t>Poca de confianza de la poblaciòn en las instituciones.</t>
-  </si>
-  <si>
-    <t>Como sector estudiantil, podrìa contribuir en la difusiòn de temas relacionados a la ciberseguridad.</t>
-  </si>
-  <si>
     <t>Impulsar las iniciativas de ley ya propuestas de ciberseguridad.</t>
   </si>
   <si>
-    <t>Acceso al internet, fomentaciòn a la participaciòn de los jovenes, incentivar la ciberseguridad en todos los niveles. Ademàs, la creaciòn de plataformas seguras en el sector academico.</t>
-  </si>
-  <si>
-    <t>Crear contenido a traves de las redes sociales y campañas radiales para alcanzar a todas la comunidades y promover la educaciòn en temas de ciberseguridad.</t>
-  </si>
-  <si>
-    <t>Crear platafomas seguras para proteger los datos personales de la poblaciòn; ademàs, trabajar en conjunto con el sector privado.</t>
-  </si>
-  <si>
-    <t>Realizar anàlisis de riesgos en temas de ciberseguridad. (como sociedad civil).</t>
-  </si>
-  <si>
-    <t>Articulando organizaciones en los distintos departamentos donde el acceso a los servicios basicos es limitado, para colaborar en la fomentaciòn de la ciberseguridad mediante el apoyo de las instituciones pùblicas y privadas.</t>
-  </si>
-  <si>
-    <t>Incentivar los conversatorios o talleres a nivel nacional, incluyendo a los distintos sectores, con el objetivo de promover la educaciòn en ciberseguridad; asimismo, desarrollar ejercicios pràcticos.</t>
-  </si>
-  <si>
-    <t>Formaciòn en temas de ciberseguridad en todos los niveles y que sea impartido en los distintos idiomas, con el objetivo de llegar a todas la comunidades.</t>
-  </si>
-  <si>
-    <t>Promover y apoyar en la educaciòn de la ciberseguridad a las alcaldias auxiliares, para expandir temas relacionados a la ciberseguridad.</t>
-  </si>
-  <si>
-    <t>Que el Gobierno sea transparente y que brinde informaciòn sobre a quienes se les esta brindando los datos personales, con el objetivo de que la poblaciòn tenga confianza.</t>
-  </si>
-  <si>
     <t>Implementar temas educativos, como conferencias de ciberseguridad, tomar en cuenta que todos deben ser capacitados, porque desde un niño que usa un celular ya debería saber de ciberseguridad, porque se debe tomar en cuenta que si esta conectado, esta expuesto.</t>
   </si>
   <si>
@@ -308,7 +240,372 @@
     <t>P3</t>
   </si>
   <si>
-    <t>Uno de los temas a considerar, sería la creación de un marco legal, ya que no puede esperar más el tema de ciberseguridad. Ya que da soporte, y estrategias para accionar, incluyendo el tema normativo, es importante como se va aplicar, la inclusión de un reglamento y los procedimientos, ya que el convenio de BUDAPEST es prioridad para poder adherirse, y poder participar de verdad dentro del intercambio.</t>
+    <t>Sector Privado</t>
+  </si>
+  <si>
+    <t>Uno de los temas a considerar, sería la creación de un MARCO LEGAL, ya que no puede esperar más el tema de ciberseguridad. Ya que da soporte, y estrategias para accionar, incluyendo el tema normativo, es importante como se va aplicar, la inclusión de un reglamento y los procedimientos, ya que el convenio de BUDAPEST es prioridad para poder adherirse, y poder participar de verdad dentro del intercambio.</t>
+  </si>
+  <si>
+    <t>Recordar que todos los esfuerzos deben centrarse en las personas y no olvidar a los grupos vulnerables, es decir mujeres, niños, comunidades indígenas, es decir que nadie se quede atrás.</t>
+  </si>
+  <si>
+    <t>La importancia de saber manejar los contenidos, pues de que serviría que la gente logre adquirir internet, si solo se utiliza en contenido sin provecho, tendría que ser al contrario, seria bueno saber como llevar la alfabetización digital para que la gente saque provecho de esta digitalización. Y saber si el sector privado sea tan interesante o invertir en las comunidades, puesto que en materia de negocio seria bueno investigar eso.</t>
+  </si>
+  <si>
+    <t>Implementar el acceso a la electricidad, equipo tecnológico e internet en los departamentos del interior del país.</t>
+  </si>
+  <si>
+    <t>Como estudiantes podríamos contribuir en la formación de ciberseguridad. (concienciación, infografías, capacitaciones, entre otros.)</t>
+  </si>
+  <si>
+    <t>Llevar estos diálogos a los departamentos del interior del país, asimismo, buscar alianzas internacionales, con el objetivo de promover la educación en temas de ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Implementar un sistema para poder digitalizar la información, crear bases de datos, fomentar la ciberseguridad y la digitalización. CCDA.</t>
+  </si>
+  <si>
+    <t>Alianzas del sector público y académicos para contribuir a la educación en temas de ciberseguridad, permitiendo que sen impartido en los diferentes sectores estudiantiles y población en general.</t>
+  </si>
+  <si>
+    <t>Proteger los datos de la población con el objetivo de ser víctimas de algún tipo de delito. Además, abrir más espacios las comunidades rurales e indígenas con el fin de expandir dichos temas.</t>
+  </si>
+  <si>
+    <t>Accesibilidad a la información, debe de ser transparente el proceso, fomentar e incluir a la población.</t>
+  </si>
+  <si>
+    <t>SBX, podría contribuir en talleres enfocados a los estudiantes, COCODES, entre otros, en temas de ciberseguridad; resaltando a la población de las tercera edad quienes son considerados como los más vulnerables en dichos temas. Además, buscar apoyo internacional.</t>
+  </si>
+  <si>
+    <t>Transparencia por parte del Gobierno, brindar la información de lo que se esta trabajando. Trabajar en conjunto con la sociedad civil.</t>
+  </si>
+  <si>
+    <t>Poca de confianza de la población en las instituciones.</t>
+  </si>
+  <si>
+    <t>Como sector estudiantil, podría contribuir en la difusión de temas relacionados a la ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Acceso al internet, fomentación a la participación de los jóvenes, incentivar la ciberseguridad en todos los niveles. Además, la creación de plataformas seguras en el sector académico.</t>
+  </si>
+  <si>
+    <t>Crear contenido a través de las redes sociales y campañas radiales para alcanzar a todas la comunidades y promover la educación en temas de ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Crear plataformas seguras para proteger los datos personales de la población; además, trabajar en conjunto con el sector privado.</t>
+  </si>
+  <si>
+    <t>Realizar análisis de riesgos en temas de ciberseguridad. (como sociedad civil).</t>
+  </si>
+  <si>
+    <t>Articulando organizaciones en los distintos departamentos donde el acceso a los servicios básicos es limitado, para colaborar en la fomentación de la ciberseguridad mediante el apoyo de las instituciones públicas y privadas.</t>
+  </si>
+  <si>
+    <t>Incentivar los conversatorios o talleres a nivel nacional, incluyendo a los distintos sectores, con el objetivo de promover la educación en ciberseguridad; asimismo, desarrollar ejercicios prácticos.</t>
+  </si>
+  <si>
+    <t>Formación en temas de ciberseguridad en todos los niveles y que sea impartido en los distintos idiomas, con el objetivo de llegar a todas la comunidades.</t>
+  </si>
+  <si>
+    <t>Promover y apoyar en la educación de la ciberseguridad a las alcaldías auxiliares, para expandir temas relacionados a la ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Que el Gobierno sea transparente y que brinde información sobre a quienes se les esta brindando los datos personales, con el objetivo de que la población tenga confianza.</t>
+  </si>
+  <si>
+    <t>Libertad de expresión</t>
+  </si>
+  <si>
+    <t>Las prioridades responden a los aportes que desde la academia se puedan realizar para entender las necesidades de país y aportar con investigaciones y datos actualizados</t>
+  </si>
+  <si>
+    <t>Aportando datos y discusiones académicas sobre la transformación digital</t>
+  </si>
+  <si>
+    <t>Las recomendaciones estarán enfocadas en los objetivos que proponga el Gobierno para atender las necesidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vision, hoja de ruta y colaboración. Urgente una Agenda de Transformación Digital de Guatemala </t>
+  </si>
+  <si>
+    <t>Estudios, ideas, mejores prácticas, colaboración con talleres, redes y propuestas concretas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decidir si se necesita una ley marco, definición clara de la estrategia, división del trabajo, actuar y evaluar. Involucrar a todos,inspirar y caminar juntos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Datos abiertos y anticorrupción 
+2. Formación a la sociedad civil sobre temas de gobierno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Procesos de investigación y asesoría a partir del análisis de datos abiertos para acciones anticorrupción en distintos niveles y sectores. 
+2. Procesos de formación de funcionarios públicos, sociedad civil y sector privado sobre la implementación de gobierno abierto y electrónico. 
+3. Procesos de difusión e incidencia del gobierno abierto a partir de análisis y publicaciones académicas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Continuar con el enfoque participativo y consenso entre sectores 
+2. Tomar buenas prácticas de otros países de la región latinoamericana considerando las particularidades socioculturales compartidas 
+3. Priorizar temas específicos de transformación digital que beneficien a la mayor parte de la población para que pueda generar confianza ciudadana y adopción de los procesos de digitalización 
+4. Emprender acciones de educación y promoción de la transformación digital 
+5. Que el proceso de transformación digital aporte simultáneamente al cierre de la brecha digital 
+</t>
+  </si>
+  <si>
+    <t>Cooperación internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modernización y facilitación de los servicios, fortalecimiento de las capacidades de las instituciones del sector público, mejora de la calidad de los servicios de educación y salud, desarrollo sostenible e inclusivo, protección del medio ambiente, equidad de género </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A través de la cooperación internacional, intercambio de experiencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modernización de la tecnología, promover la interoperabilidad, </t>
+  </si>
+  <si>
+    <t>Cuerpo Diplomático</t>
+  </si>
+  <si>
+    <t>Rectoría, identidad digital, base de datos nacional, y respaldo legal, acceso y protocolos para desarrollo de servicios públicos digitales sensibles a la infancia y pueblos originarios. Fortalecimiento de capacidades (currículum actualizado al contexto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyo técnico para la construcción de leyes/protocolos y pilotos. Financiamiento limitado para acciones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear una hoja de ruta y un abordaje por fases. Priorizando el área legal y la estandarización de tecnologías y procesos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La gobernanza, la alfabetización digital, la inclusión para reducir las brechas digitales existentes como pueblos indígenas y la brecha de género. Es importante empoderar al Estado para que se pueda entender la importancia que tiene la transformación digital en Guatemala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con apoyo técnico y de creación de habilidades tanto para el gobierno como para la población general en cuanto a temas relacionados a la Alfabetización digital, el uso de la inteligencia artificial y el uso de las tecnologías de manera responsable y segura. Contamos con estudios a nivel global que pueden implementarse en Guatemala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es importante la creación de un marco legal y de una policía de estado  sostenible en el tiempo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulsar infraestructuras públicas digitales en el país de manera coordinada y articulada. Entre ellas, la interoperabllifad, identidad digital y pagos digitales para tener un salto tecnológico que acelere la prestación de servicios del Estado, asegurando la inclusión digital en este proceso. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cómo socio estratégico que contribuye con conocimiento, acompañamiento técnico y logístico, convocatoria y coordinación de múltiples actores, apoyo de pilotos estratégicos. </t>
+  </si>
+  <si>
+    <t>Alinear los esfuerzo a una única agenda de transformación digital del país. Esto implica colaborar con sector privado, academia, sociedad civil, cooperantes. A través de esta agenda canalizar las necesidades de las instituciones para evitar la fragmentación y uso disperso de tecnologías que dificulten a los usuarios (ciudadanos) el acceso a los servicios digitales. Integrar la experiencia de usuario a los planes digitales de las instituciones y el re diseño de servicios digitales.</t>
+  </si>
+  <si>
+    <t>Las empresas inversoras y exportadoras requieren procesos claros, objetivos, seguros y rápidos o eficientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las empresas españolas de tecnología y consultoras pueden contribuir con su experiencia a aportar soluciones tecnológicas y de gestión </t>
+  </si>
+  <si>
+    <t>Hay que empezar por proyectos piloto que permitan generar soluciones primearias</t>
+  </si>
+  <si>
+    <t>Gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simplificación de trámites y datos abiertos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siguiendo las leyes y acuerdos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voluntad política </t>
+  </si>
+  <si>
+    <t>Privado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simplificación y digitalización de trámites, por lo que la interiperabilidad es fundamental. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde Guatemala No se detiene se apoya estos estos procesos con consultores y enlaces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobernanza, agenda nacional de pais, ejecución de proyectos coordinada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tramites de Registros y Otras gestiones en Control de Alimentos del MSPAS
+Tramites de Alimentos Laboratorio Nacional MSPAS
+Consultas sobre Registros Sanitarios de Alimentosn en Linea.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyando estas iniciativas en las mesas de dialogo.
+Proponiendo Ideas para reducir Focos de Corruocion en tramitologia.
+Socializando la iniciativa dentro de su propio sector.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificar los Puntos Criticos de Corrupcion en la tramitologia de Estado para automatizarlos.
+Garantizar el acceso a tramitologia de Estado por medio de APPs para Celulares.
+Mucha Comunicacion Efectiva.
+</t>
+  </si>
+  <si>
+    <t>1. Agilizar y eliminar la discrecionalidad en trámites y registros
+2. Transparentar las compras y adquisiciones del Estado
+3. Haciendo que procesos educativos y de modernización de la sociedad lleguen a más personas y en menos tiempo</t>
+  </si>
+  <si>
+    <t>1. Trasladando capacidades del sector privado hacia el público
+2. Proponiendo metodologías de priorización y seguimiento
+3. Haciendo incidencia política para que las reformas legales e implementación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Establecer ruta, visión de qué significa y hacer comunicación efectiva a toda la sociedad
+2. Priorizar las áreas y procesos que generen mayor impacto en transparencia y servicio a la ciudadanía
+3. Establecer hoja de ruta y empoderar a la GAE para que fije los estándares y exija cuentadancia al resto de dependencias
+4. Socializar metas, logros y alcances </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer público las APIs a todos los usuarios que lo requiera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que permita a las Pymes tecnologícas a participar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compras de Gobierno </t>
+  </si>
+  <si>
+    <t>Agilización de tramites de caracter regulatorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenemos experiencia en simplificación de tramites regulatorios, levantamiento de procesos y agilizsción para hacer ttamites digitales desde 1987. 
+</t>
+  </si>
+  <si>
+    <t>Tramites regulatorios en MSPAS- regustros, licencias, renovación de registros para medicamentos y alimentos. 
+Licencias ambientales MARN.
+Tramites en MAGA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobertura digital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campañas de información </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobertura digital 
+Campaña de información </t>
+  </si>
+  <si>
+    <t>Identidad Digital e Interoperabilidad de las entidades del Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitación de jóvenes y otros programas de capacitación basados en la comunidad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinación y unificación de esfuerzos. Trabajo técnico y práctico. Instituciionalidad de los procesos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilitación de trámites y acceso a la tecnología </t>
+  </si>
+  <si>
+    <t>Aportando nuestras experiencias y perspectivas y procurando la inclusión de nuestro colectivo</t>
+  </si>
+  <si>
+    <t>Que las instituciones sean adecuadamente capacitadas y provistas de los recursos para poder cumplir con su trabajo</t>
+  </si>
+  <si>
+    <t>Recursos para la Educación, diseño de herramientas y uso de medios radiales, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de herramientas, formación de formadores a nivel local, estrategias de comunicación para la transparencia </t>
+  </si>
+  <si>
+    <t>Voluntad política, asignación de presupuesto y formación y educación continua</t>
+  </si>
+  <si>
+    <t>La digitalización de la información de las instituciones publicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportando a la discusión y creación de políticas de transformación digital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No dejar por lado a la ciudadanía en la discusión, esta transformación debe servir para mejorar la vida de las y los ciudadanos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Facilitar información a grupos de mujeres en los territorios 2) Fortalecimiento de capacidades  a grupos de mujeres en herramientas digitales en los territorios. 
+</t>
+  </si>
+  <si>
+    <t>Réplicas de conocimientos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir a las mujeres en los procesos de transformación digital. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitación continua, una desmonopolizacion del servicio de Internet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar a las mujeres con quienes trabajamos </t>
+  </si>
+  <si>
+    <t>Internet seguro y rápido, y de ser posible tecnología al alcance de la población.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educación inclusiva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creando alianzas entre sectores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lograr operativisar entre organizaciones del ejecutivo o </t>
+  </si>
+  <si>
+    <t>Formación digital, acceso a medios.</t>
+  </si>
+  <si>
+    <t>Llevando información, formación y recursos a comunidades indígenas (48 Cantones)</t>
+  </si>
+  <si>
+    <t>Gobierno electrónico para la eficiencia y eficacia estatal.....</t>
+  </si>
+  <si>
+    <t>Facilitar los procesos y trámites que como jóvenes nos podemos llegar a enfrentar por primera vez.</t>
+  </si>
+  <si>
+    <t>Difusión y capacitación de la población universitaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que sea fácil de entender y ágil </t>
+  </si>
+  <si>
+    <t>Interconectar la información del gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cómo usuarios de los sistemas podemos apoyar en garantizar las necesidades de la ciudadanía, con pertinencia de género, e interculturalidad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un proceso de comunicación claro para dar a conocer los cambios. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrategia nacional de transformación digital, legislación moderna y fortalecida, espacios de participación, inversión pública, voluntad política </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrategias y capacidades sobre impletacion de la estrategia, conocimiento de necesidades de la población específicamente de grupos poblacionales qué son vulnerables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorporar organizaciónes del interior del país, comunicación constante entre entidades públicas a todo nivel. </t>
+  </si>
+  <si>
+    <t>Trabajo y salario competente que permita adquirir dispositivos tecnológicos y capacitación digital. Además que permita disponer de internet regular.</t>
+  </si>
+  <si>
+    <t>Aportar con validar el contenido y también con socializar el contenido de transformación digital.</t>
+  </si>
+  <si>
+    <t>Que realice un diagnóstico responsable en las comunidades rurales antes de crear contenido, estrategias. El diagnóstico debe a qué tienen acceso las personas en las áreas rurales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contar con herramientas accesibles y fáciles de utilizar. El internet debe ser accesible </t>
+  </si>
+  <si>
+    <t>Validar las herramientas digitales para ser accesibles e informar sobre la transformación digital que se está desarrollando en el Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear espacios accesibles para hacer uso de la digitalización del gobierno </t>
   </si>
 </sst>
 </file>
@@ -318,7 +615,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;Q&quot;#,##0;[Red]\-&quot;Q&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +635,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -396,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -433,6 +738,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4893CB-7321-44A7-B457-11B87E195EC7}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -854,13 +1162,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -868,13 +1176,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -882,13 +1190,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -896,317 +1204,760 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>24</v>
+      <c r="A20" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D31" s="7"/>
     </row>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB04D74B-203B-4761-8727-6A55601EBBBC}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/info.xlsx
+++ b/info.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shannon.cap\Documents\GitHub\sistematizacion_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F40F08-24E8-42C4-BF10-D9A24507ACF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E49982F-E771-4765-9999-7D454F11808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F46115C4-AD7F-4302-BE6E-0AA369B82E4D}"/>
+    <workbookView xWindow="13350" yWindow="135" windowWidth="15450" windowHeight="15465" activeTab="2" xr2:uid="{F46115C4-AD7F-4302-BE6E-0AA369B82E4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="LAC4" sheetId="1" r:id="rId1"/>
+    <sheet name="EGA" sheetId="2" r:id="rId2"/>
+    <sheet name="quiche" sheetId="3" r:id="rId3"/>
+    <sheet name="huehue" sheetId="4" r:id="rId4"/>
+    <sheet name="taller" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="384">
   <si>
     <t>Sector</t>
   </si>
@@ -607,15 +610,642 @@
   <si>
     <t xml:space="preserve">Crear espacios accesibles para hacer uso de la digitalización del gobierno </t>
   </si>
+  <si>
+    <t>Seria de tanta utilidad conocer datos que influyen para el analisis y toma de decisiones en el area comunitaria</t>
+  </si>
+  <si>
+    <t>Datos de desarrollo humano/Desnutricion, Salud materna/ infantil, Analfabetismo, Educacion, Pobreza                                              Presupuesto Nacional             Presupuesto Departamental Presupuesto Municipal             Inversion en Proyectos Comunitarios</t>
+  </si>
+  <si>
+    <t>Ayuda una persona o grupos para su participacion  en espacios de participacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto Nacional             Presupuesto Departamental   Presupuesto Municipal </t>
+  </si>
+  <si>
+    <t>Tienen un objeto claro de fundamento y sustento para tener las bases de exigencia para la correcta ejecucion de los proyectos y programas vigentes, tanto del ambito del Ejecutivo como del aspecto Municipal</t>
+  </si>
+  <si>
+    <t>Iniciando por tener la informacion  de proyectos al ejecutar, es un buen punto de partida para iniciar a recolectar datos que sirven de proyeccion para fiscalizar de manera responsable</t>
+  </si>
+  <si>
+    <t>Ayudarla a fomentar la innovacion en las comunidades rurales, ayudarla a mejorar la transparencia</t>
+  </si>
+  <si>
+    <t>Conocer el Presupuesto Nacional                                            Conocer el Presupuesto Departamental                                 Conocer el Presupuesto Municipal</t>
+  </si>
+  <si>
+    <t>Porque nos da a conocer en la informacion de inversion gasto del presupuesto</t>
+  </si>
+  <si>
+    <t>Presupuesto.                                     Listado de proyectos de los ministerios de Gobierno, En que se gasta</t>
+  </si>
+  <si>
+    <t>En realidad los que sepan leer y escribir ayudaria. Pero hoy en estos dias nuestras autoridades muchos son analfabetos y no dan interes por esos procesos, es mas si estan bien dominados bajo la presion de los alcaldes corruptos</t>
+  </si>
+  <si>
+    <t>Pues necesitara unas capacitaciones para nuestras autoridades.                                     Para dar seguimiento a estos procesos que va a favor de los intereses y bienes del pueblo</t>
+  </si>
+  <si>
+    <t>Generar informacion para tomar decisiones, organizarnos e involucrarnos</t>
+  </si>
+  <si>
+    <t>Como las obras grises que ejerce e impulsar los CODEDES</t>
+  </si>
+  <si>
+    <t>Conocer la informacion              Analizar, priorizar y tomar decisiones</t>
+  </si>
+  <si>
+    <t>Presupuesto de las Municipalidades                              Listado geografico de obras para los CODEDES</t>
+  </si>
+  <si>
+    <t>Mejorar la atencion al sistema Enventivo                                              Mejorar las condiciones de vida de los alumnos                      Detectar necesidades de construccion para mejorar las instituciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estructura Vial                                   Numero de maestros </t>
+  </si>
+  <si>
+    <t>Fuente de informacion efectiva en toma de decisiones, sistema educativo, fortalecer la informacion, los presupuestos asignados</t>
+  </si>
+  <si>
+    <t>Estadistica, desnutricion infantil                                                     Infraestructura Vial                         Desempleo                                           Cobertura en infraestrucutra    Acceso a servicios basicos</t>
+  </si>
+  <si>
+    <t>Educacion                                           Alimentacion                                      Servicio                                                   Economia</t>
+  </si>
+  <si>
+    <t>Fortalecer la educacion                Sobre todo analizar como plasmar actos para mejorar la economia</t>
+  </si>
+  <si>
+    <t>Obteniendo informacion veridica                                                  Que los grupos Ajaijab o consejos de Ajaijab tengan el manejo de los lugares sagrados</t>
+  </si>
+  <si>
+    <t>Titulos de las tierras comunales del departamento de Quiche</t>
+  </si>
+  <si>
+    <t>Proporcionan un panorama, una situacion o una necesidad existente a la cual se le debe dar una respuesta    Visibilizan un problema o necesidad existente para que se generen proyectos o programas que requieran una asignacion presupuestaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadistica                                          Informes cualitativos                    Informacion Publica veraz, confiable y practica                         Informacion  en Idiomas mayas </t>
+  </si>
+  <si>
+    <t>Capacitacion en las comunidades rurales con las autoridades comunitarias.        Capacitar a los jovenes</t>
+  </si>
+  <si>
+    <t>Con informacion.                            Participacion.                                     Propuesta.                                            Toma de decisiones.                     Ejecucion transparencia.</t>
+  </si>
+  <si>
+    <t>Son fuente de informacion para la efectiva toma de descisiones y para el analisis  de los principales problemas que nos afectan, pudiendo generar propuestas y proyectos que mejoren la calidad de vida de los habitantes</t>
+  </si>
+  <si>
+    <t>Indice de desnutricion infantil. Estadistica de desercion infantil escolar.                                 Tasa de desempleo y acceso a una vivienda digna.                        Porcentaje de cobertura de infraestructura vial y acceso a servicios basicos.</t>
+  </si>
+  <si>
+    <t>Tener datos es de suma importancia porque en base a ello se puede tomar decision para el desarrollo de la comunidad</t>
+  </si>
+  <si>
+    <t>Desnutricion.                                      Migracion.                                            Educacion.                                           Infraestructura.</t>
+  </si>
+  <si>
+    <t>Tener acceso, efectivo, rapido eficaz para las accione que se realizan dentro de mi municipio, Toma de decisiones y el desarrollo local</t>
+  </si>
+  <si>
+    <t>Datos sobre presupuesto municipal ingreso y gasto.         Migracion.                                            Datos demograficos, distribucion por edades y sexo, identidad de genero, orientacion sexual.                         Datos sobre vacunacion.           Niveles de empleo y desempleo.                                         Estado de carreteras.                    Estadistica sobre criminalidad</t>
+  </si>
+  <si>
+    <t>Muy fundamental para promover el desarrollo economico e innovacion, mejorias y crear los servicios como incrementacion de transparencia, la rendicion de cuentas y las eficiencias publicas</t>
+  </si>
+  <si>
+    <t>El mejoramiento de servicios comunitarios es muy eficaz, por ejemplo, Educacion</t>
+  </si>
+  <si>
+    <t>Ayudaria para la transparencia de los proyectos ejecutados.                   Informacion hacia la ciudadania.                                         Empoderando comunidades rurales.                                                    Ayudaria a la auditoria.</t>
+  </si>
+  <si>
+    <t>Llevar la informacion a las comunidades.                                   Acceso a un telefono inteligente en las comunidades rurales.                  Participacion en charlas.            Conocimiento.</t>
+  </si>
+  <si>
+    <t>Sirven para informarnos, asi poder exigir el cumplimiento de los proyectos que estan registrados en el portal</t>
+  </si>
+  <si>
+    <t>Proyectos para la comunidad. Presupuesto para los proyectos.</t>
+  </si>
+  <si>
+    <t>Estos datos nos ayuda para organizar la informacion sobre la auditoria social.</t>
+  </si>
+  <si>
+    <t>Necesitamos la informacion sobre la proyeccion de proyectos para la toma de decision.</t>
+  </si>
+  <si>
+    <t>Son basicas las auditorias sociales para la toma de decisiones y lo principal son los datos para cambiar  y proponer rumbos en mejora de la inversion de nuestra region. La auditoria social  es el reflejo de que el pueblo este enterado.</t>
+  </si>
+  <si>
+    <t>La inversion local central de proveedores, avances y proyeccion el respaldo del rumbo de la inversion del municipio</t>
+  </si>
+  <si>
+    <t>Al tener datos concretos, se pueden tomar decisiones de mejoras, en infraestructura y atencion primaria en las necesidades comunitarias</t>
+  </si>
+  <si>
+    <t>Por ser de area urbana, los datos son estadisticos, unicamente.</t>
+  </si>
+  <si>
+    <t>Ayuda conocer o saber lo que falta en la comunidad, ayuda a fiscalizar y monitorear lo que tiene y lo que no tiene la comunidad</t>
+  </si>
+  <si>
+    <t>Saber cuanto dinero invirtio le alcalde municipal en el bacheo de las carrteras.              Saber como se distribuye la alimentacion a las comunidades mas necesitadadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priorizacion y toma de decisiones </t>
+  </si>
+  <si>
+    <t>Donde se fue el presupuesto de la carretera de zona paz de chicaman a Ixcan.                          Donde o que paso el presupuesto de carretera de argentina patulul a napole zona reyna.</t>
+  </si>
+  <si>
+    <t>Los datos pueden ayudar en parte a la formacion para mejorar la calidad de los proyectos  y servicios que presten las instituciones, si vemos que el desarrollo es integral. Sin embargo, si esto no lo trasladamos al nivel educativo como parte del pensum de estudio, tendriamos cuidados con poca capacidad de este proceso.</t>
+  </si>
+  <si>
+    <t>Creo importante hacer un esfuerzo de trasladar datos tecnicos a una mirada comunitaria y escolar.                  Nivel de pobreza.                              Desnutricion.                                      Educacion.                                           Canasta basica.                               Salario minimo.                                Migracion.                                             Calidad de gasto publico.</t>
+  </si>
+  <si>
+    <t>Si es muy importante porque hay necesidades y proyectos esta estipulado o presupuestado.</t>
+  </si>
+  <si>
+    <t>Poner los datos por medio alternativa cables radios, comunitarios, redes sociales.</t>
+  </si>
+  <si>
+    <t>Facilita sobre informacion y dudas sobre como adquirir el proceso sobre proyectos</t>
+  </si>
+  <si>
+    <t>Informacion de proyectos.         Informacion sobre cuanto es el fondo del departamento o el municipio.                                            Informacion de como gestionar proyectos.</t>
+  </si>
+  <si>
+    <t>Estar informando a la comunidad,    Tener elementos para tomar decisiones, Sirve para hacer preguntas, Le sirve para poder acreditar</t>
+  </si>
+  <si>
+    <t>Todo lo que se refiera a la salud, educacion y nutricion, Proyectos aprobados, infraestructura, Poblacion, Salud, Presupuesto</t>
+  </si>
+  <si>
+    <t>Comprender mejor la dimension del desarrollo en funcion de un buen uso o buena aplicacion</t>
+  </si>
+  <si>
+    <t>Datos de edad para parametros, niñes, juventud, ciudadanos de 18 años y ancianos, Grados de escolaridad y promedios</t>
+  </si>
+  <si>
+    <t>Tener mayor y mejor informacion, Realizar auditoria social, Tomar mejores decisiones</t>
+  </si>
+  <si>
+    <t>Demografia, Informacion de las instituciones del estado, Presupuesto y proyectos municipales</t>
+  </si>
+  <si>
+    <t>Conocer la inversion que esta haciendo el gobierno nacional y local, hacer auditoria social, conocer en que se estan invirtiendo los impuestos</t>
+  </si>
+  <si>
+    <t>Infraestructura, Pobreza, Demografia, Clima, Presupuesto, Otros</t>
+  </si>
+  <si>
+    <t>Es sumamente importante por que es el protocolo para hacer el proceso y establecer la informacion</t>
+  </si>
+  <si>
+    <t>Datos: Nivel de escolaridad, Habilidades de empleo, Interes de empleo, Mayores tipos de empresas en la region estadisticas de las edades de la poblacio</t>
+  </si>
+  <si>
+    <t>Pueden ayudar para que la informacion o documentos que puedan llegar o necesitar no tengan que estar viajando de una comunidad a otra</t>
+  </si>
+  <si>
+    <t>Planear bien como se manejara cualquier dato con transparencia y facilidad para las comunidades, Datos de informacion general como administrativas que puedan llegar a necesitar las personas de las comunidades</t>
+  </si>
+  <si>
+    <t>Dando informacion pronta y segura, Conocimiento de inversion en los proyectos, Tipos de proyectos a realizarse, Inversion de gesto en planes de emergencia y donde recurrir</t>
+  </si>
+  <si>
+    <t>Planes de informacion presupuestaria Presupuesto asignado</t>
+  </si>
+  <si>
+    <t>Facilitan accesibilidad                    Fomenta la transparencia                Mantiene informada a la comunidad Contribuye a la participacion ciudadana</t>
+  </si>
+  <si>
+    <t>Datos geograficos y poblacionales       Estadisticas desagregadas, por ejemplo *trabajo infantil                                          Bases de datos de beneficiarios de programas                                                   Proyectos que se ejecutan y sus fuentes de financiamientos</t>
+  </si>
+  <si>
+    <t>Mayor conocimiento en los ciudadanos para concientizar      Identificacion de problemas en la comunidad y su resolucion</t>
+  </si>
+  <si>
+    <t>Datos sobre robos y violencia para incremento de seguridad dentro de la comunidad                                                  Datos sobre jornadas de salud</t>
+  </si>
+  <si>
+    <t>Construccion  de carretera               Construccion de escuela</t>
+  </si>
+  <si>
+    <t>Yo busco informacion                                 Cuantos dias se construllo la escuela que tipo de materia Cuanto es el costo Cuantos meses llevo la construccion Cuanto es el costo</t>
+  </si>
+  <si>
+    <t>Siendo datos especificos de una problematica identificada, nos servira de base para tomar decisiones de manera urgente para realizar propuestas de desarrollo                    Mejorar transparencia, rendicion de cuentas al permitir que los ciudadanos monitoreen el uso de recursos publicos</t>
+  </si>
+  <si>
+    <t>Pillares fundamentales que serviran de base para tomar decisiones para realizar propuestas de planificacion                     Salud, educacion, violencia solicitada de caracter juridicas necesarias para que puedan ser utilizadas y puestas a disposicion del publico</t>
+  </si>
+  <si>
+    <t>Ayudan a brindar informacion clara en los procesos, generan mas confianza y de elementos para la toma de decisiones en el momentos oprtuno.   Ademas sirve aprendizaje y genera mayor conocimiento de los lineamientos</t>
+  </si>
+  <si>
+    <t>Datos que agrupan las necesidades fundametales para tomar decisiones:       Aspectos socioeconomicos                        Informacion de poblacion                          Cobertura de salud                                     Niveles de educacion                                 Causas de niveles de desnutricion y pobreza</t>
+  </si>
+  <si>
+    <t>Si se tuviera acceso a datos Abiertos, me gustaria conocer la inversion sobre Construccion de carreteras, escuelas, cuanto se invierte para la niñes y juventud y aspectos culturales</t>
+  </si>
+  <si>
+    <t>Datos sobre la educacion, cual es el presupuesto que recibe el consejo munnicipal</t>
+  </si>
+  <si>
+    <t>Informacion publica                              Datos sobre educacion, salud, presupuesto para cada renglon</t>
+  </si>
+  <si>
+    <t>Transparencia municipal                             Informacion sobre cada proyecto                La inversion infraestructura</t>
+  </si>
+  <si>
+    <t>A involucrarse en el desarrollo del municipio</t>
+  </si>
+  <si>
+    <t>Proyectos priorizados previo a licitacion    Estadisticas por edad                                    Carteras de empleos a nivel municipal para la juventud                                              Proyectos priorizados por el CODEDE        Conocer sobre proyectos ambientales priorizados</t>
+  </si>
+  <si>
+    <t>Denuncias en tiempo real para generar estadisticas</t>
+  </si>
+  <si>
+    <t>Una cultura de denuncia y de prevencion de problematica social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información sobre producción minera y petrolera </t>
+  </si>
+  <si>
+    <t>Informará a la población sobre los sectores extractivos</t>
+  </si>
+  <si>
+    <t>Datos mineros y de hodrocarburos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector de inversionistas extranjeros </t>
+  </si>
+  <si>
+    <t>Incidentes, incendios</t>
+  </si>
+  <si>
+    <t>Información oportuna de los sucesos ocurridos por desastres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los resultados de formularios y consultas que se realizan. También información sobre actividades que se han realizado tanto con sociedad civil como con funcionarios públicos </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>De gasto público</t>
+  </si>
+  <si>
+    <t>Información más certera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solicitudes de ofertas de trabajo en el extranjero </t>
+  </si>
+  <si>
+    <t>Los usuarios conocerán a qué plazas pueden optar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información Financiera.
+Informacion de Servicios.
+Informacion de Nivel Académico. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Credibilidad. </t>
+  </si>
+  <si>
+    <t>Estadística de las solicitudes de exoneraciones de multas solicitadas a nivel nacional.</t>
+  </si>
+  <si>
+    <t>Impacto bajo, ya que es como estadística de solicitudes a una institución.</t>
+  </si>
+  <si>
+    <t>Proyectos de los Consejos de Desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que se tenga información actualizada de los proyectos en ejecución </t>
+  </si>
+  <si>
+    <t>Estadísticas de incidencias en salud</t>
+  </si>
+  <si>
+    <t>Conocimiento de comportamiento en salud por comunidades y sus causas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minera, petrolera, energética y laboratorios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inversión y conocimiento para sociedad para realizar trámites </t>
+  </si>
+  <si>
+    <t>Para la Sesan es complicado ya que no entrega bienes o servicios a la población.</t>
+  </si>
+  <si>
+    <t>Creo que todavía no  hay  interés en la población en general y muy poco entre analistas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adquisiciones públicas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar transparencia a la ejecución de los recursos públicos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia Legal Gratuita por Departamento y Municipio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programas de prevención </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información sobre cantidad de estudiantes inscritos por área geográfica, nivel.
+Información de estudiantes desertores. 
+Información relativa al sector educativo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conocimiento de cuanta población tiene acceso al sector educativo y verificar otras variables de desarrollo. </t>
+  </si>
+  <si>
+    <t>Sector privado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información de contactos, correos, teléfonos, atribuciones, nombres y cargos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayor apertura de que hacer cada servidor público y como tener un mejor acercamiento con ellos. Así como una transferencia en quien ocupa que cargos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecución de proyectos, ranking sobre publicaciones en las redes sociales, capacitaciones, informes sobre contrataciones en las diferentes renglones </t>
+  </si>
+  <si>
+    <t>Que proyectos se están ejecutando con más comunidades, el valor, tiempo de ejecución, conocer a los proveedores, conozcan el ranking sobre la información que se publica, conocer los tipos de contrataciones y los servicios que prestan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo los datos relacionados con los recursos naturales no renovables que se manejan en la institución, así como los servicios prestados a los usuarios de laboratorios técnicos y de otras Direcciones Generales que conforma la Institución </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información de los sectores minero y energético y consulta para posibles inversionistas para generar fuentes de trabajo y brindar servicios más efectivos a los usuarios de la Institución </t>
+  </si>
+  <si>
+    <t>Datos de los proyectos que se supervisan y daros de jornadas de desentralizacion</t>
+  </si>
+  <si>
+    <t>Proveer información sobre que tipo de proyectos fue realizado, así como costo del mismo.</t>
+  </si>
+  <si>
+    <t>Sociedad civil</t>
+  </si>
+  <si>
+    <t>Datos sobre violencia (homicida, asesinatos, extorsiones, etc) desagregados territorialmente y por sexo, etnia, edad, etc de la víctima. Hots spots o áreas territorialmente identificadas en las cuales se concentran ciertos delitos de alto impacto para la población.</t>
+  </si>
+  <si>
+    <t>Ayudaría a generar análisis de datos y producción de información importante para la implementación de políticas públicas de prevención de violencia y de seguridad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Información financiera de una manera amigable, desagregada, los ingresos y egresos, ingresos privativos. 
+2. Información desagregada del que hacer de la institución, sobre los servicios. 
+3. Estadísticas por nivel académicos a nivel gobierno. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alto nivel de transparencia. Confianza hacia el gobierno. </t>
+  </si>
+  <si>
+    <t>Estadísticos, medición, resultados, programas y proyectos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información y conocimiento de logros, y programas en Pro de la población. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio climático, plagas, programas y beneficiarios, producción agrícola, plagas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las personas interesadas pueden generar estadísticas de incrementos y decrementos en producción de alimentos, expertaciones, como afecta el medio ambiente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos de tesis, maestrías, de semestre. El índice de puestos disponibles de trabajo para poder aplicar, </t>
+  </si>
+  <si>
+    <t>Puntos de Tesis, Bibliográfias, estadísticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El hecho que haya una plataforma donde se encuentre la información clasificada y de una manera más rápida. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Información financiera (compras, ingresos , egresos) desagregada.
+* Información desagregada del que hacer de la institución.
+* Estadísticas nivel académico de funciones y servidores públicos </t>
+  </si>
+  <si>
+    <t>Transparencia y rendición de cuentas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Cantidad de denuncias emitidas
+-Cantidad de elementos ilícitos incautados (armas, drogas)
+Cantidad de vehículos recuperados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tener a la mano la información y de los logros que se han dado durante el tiempo que se quiera saber, si se cumple con las obligaciones de la institución </t>
+  </si>
+  <si>
+    <t>Temas de foros</t>
+  </si>
+  <si>
+    <t>Informados del qué hacer del MINEX y cultura general</t>
+  </si>
+  <si>
+    <t>Datos relacionados con el que hacer de la institución, que es certeza jurídica en el facturar del despacho del Presidente como Acuerdos Gubernativos, Decretos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generaria beneficio al sector público, ya que daría conocimiento a las instituciones  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de datos abiertos nominales sobre seguridad, justicia, trabajo, educación desagregados por beneficiarios por sexo, edad, etnia, departamentos y municipios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayor transparencia y rendición de cuentas </t>
+  </si>
+  <si>
+    <t>Estadísticas de cantidad de trámites generados, denuncias recibidas, data de empleabilidad, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Población informada en servicios públicos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos acerca de las zonas de reserva del Estado en relación a arrendamientos </t>
+  </si>
+  <si>
+    <t>Transparencia e información actual en relación a zonas de reserva del Estado y sus arrendamientos.</t>
+  </si>
+  <si>
+    <t>Estadísticos</t>
+  </si>
+  <si>
+    <t>Conocimiento de la administración pública a traves de graficas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bases de datos en formato digital y editable. Datos abiertos de distintas instituciones como el INACIF, MP, TSE, Municipalidades, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contar con datos digites en formatos editables facilita el trabajo del procesamiento de información para fiscalizar, analizar, promover y trasladar propuestas efectivas que generen un verdadero impacto. </t>
+  </si>
+  <si>
+    <t>Acciones institucionales</t>
+  </si>
+  <si>
+    <t>Conocimiento del quehacer Institucional, mejorar la interacción con la sociedad civil</t>
+  </si>
+  <si>
+    <t>Clasificación Integrada por Fases de la Inseguridad Alimentaria; Comisiones de Seguridad Alimentaria y Nutricional; Monitoreo de la Desnutrición Aguda; Indicadores de Seguridad Alimentaria y Nutricional; Monitoreo  Comunitario de Conocimientos, Prácticas y Actitudes en SAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incidencia Política para la toma de decisiones basadas en evidencia; Gestión de proyectos de apoyo a familias en situacion de desnutrición aguda;   Aumento de auditoría social; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos de vacunacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El conocimiento de los niveles de cobertura de vacunacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La STCNS consume datos para generar información a través de análisis de coyuntura, se me ocurre únicamente los datos de las reuniones de consejo donde se reúnen y analizan dicha información </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darse cuenta de la cantidad de reuniones y la importancia que se le da a nivel consejo la seguridad interior y exterior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Cantidad de aprehensiones 
+- Cantidad de vehículos recuperados 
+- Cantidad de armas incautadas (de fuego, contundentes, armas blancas, etc.)
+- Cantidad de antecedentes policiales emitidos (presenciales, en línea)
+- Resultados e impacto de planes de seguridad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis de Información para la efectiva toma de decisiones en materia de seguridad. Mejora de la percepción ciudadana respecto al trabajo policial. </t>
+  </si>
+  <si>
+    <t>Estadísticas  de cuantas licencias ambientales se otorgan, categoría y departamentos que se llevará el proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sería de gran interés para distintos  grupos.  Y reflejaría el total de actividades económicas en el país.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos Estadisticos de cada Subsecretaría en cuanto al porcentaje de  subvenciones que maneja cada una. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La población podria tener datos excatos  en cuanto a la cantidad de niñez y adolescencia atendida en la institución </t>
+  </si>
+  <si>
+    <t>Derivado de la producción institucional únicamente se pueden brindar datos estadísticos y financieros sobre incautaciones.</t>
+  </si>
+  <si>
+    <t>Ninguno, derivado que es información que traslada otras instituciones que conforman CONABED.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos en relación a la participación de la mujer en materia de seguridad </t>
+  </si>
+  <si>
+    <t>Evaluar estadísticamente como estamos avanzando en relación a la igualdad y equidad de género en el ámbito de seguridad</t>
+  </si>
+  <si>
+    <t>Ejecución presupuestaria en tiempo real, y desglosada por poblaciones diversas, programas y resultados. Y geopoliticamente .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejora en la inversión del gasto, credibilidad en la institución, análisis para diseño de política publica </t>
+  </si>
+  <si>
+    <t>Datos sobre el avance que como ente rector de empleo digno se han logrado, por medio de los diferentes servicios que brinda el ministerio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confianza en la población en apoyo para generar empleo digno. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos de frecuencias y Radiodifusión, así como  numeración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceso a información en caso de emergencias  por mencionar un ejemplo, y en el caso de comercializadores de celulares y tarjetas sim sirve para combatir la delincuencia y prevenir la comercialización de celulares robados y evitar extorsiones y secuestros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compras y Contratos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos de las carreteras, vías de comunicación, estadísticas de programas de cada gasto público respecto a las carreteras, viviendas y comunicación en Guatemala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La sociedad interesada usaría ciertos datos para generar informes, estar informados de lo trabajado y pronto a trabajar </t>
+  </si>
+  <si>
+    <t>zona12</t>
+  </si>
+  <si>
+    <t>san ildefonso ixtahuacan</t>
+  </si>
+  <si>
+    <t>san rafael petzal</t>
+  </si>
+  <si>
+    <t>huehuetenango</t>
+  </si>
+  <si>
+    <t>todos santos cuchumatan</t>
+  </si>
+  <si>
+    <t>aguacatan</t>
+  </si>
+  <si>
+    <t>sacapulas</t>
+  </si>
+  <si>
+    <t>santa cruz del quiche</t>
+  </si>
+  <si>
+    <t>chinique</t>
+  </si>
+  <si>
+    <t>chichicastenango</t>
+  </si>
+  <si>
+    <t>patzite</t>
+  </si>
+  <si>
+    <t>san pedro jocopilas</t>
+  </si>
+  <si>
+    <t>san bartolome jocotenango</t>
+  </si>
+  <si>
+    <t>nebaj</t>
+  </si>
+  <si>
+    <t>guatemala</t>
+  </si>
+  <si>
+    <t>santa clara chajul</t>
+  </si>
+  <si>
+    <t>san antonio nueva esperanza</t>
+  </si>
+  <si>
+    <t>chajul</t>
+  </si>
+  <si>
+    <t>aldea ilom</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;Q&quot;#,##0;[Red]\-&quot;Q&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +1274,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -665,7 +1313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -697,11 +1345,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -742,12 +1481,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{25EA7928-E873-4D44-8368-D74C764067E9}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{356058D0-2215-4107-A972-0A3A412E4881}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1078,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4893CB-7321-44A7-B457-11B87E195EC7}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB04D74B-203B-4761-8727-6A55601EBBBC}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,4 +2765,1119 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4858B3EB-CDC9-47CF-83A7-429BC710B62C}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="252" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="252" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="378" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63177CDF-3E75-4145-A6B7-A153F21E1FD3}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFB4322-8A52-46B1-9820-21E2F6F62812}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shannon.cap\Documents\GitHub\sistematizacion_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://copregatit-my.sharepoint.com/personal/shannon_cap_transparencia_gob_gt/Documents/Documentos/GitHub/sistematizacion_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E49982F-E771-4765-9999-7D454F11808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3E49982F-E771-4765-9999-7D454F11808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A46D5B-A88E-41C2-9421-43C9A802B65C}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="135" windowWidth="15450" windowHeight="15465" activeTab="2" xr2:uid="{F46115C4-AD7F-4302-BE6E-0AA369B82E4D}"/>
+    <workbookView xWindow="345" yWindow="585" windowWidth="23445" windowHeight="14745" activeTab="5" xr2:uid="{F46115C4-AD7F-4302-BE6E-0AA369B82E4D}"/>
   </bookViews>
   <sheets>
     <sheet name="LAC4" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="quiche" sheetId="3" r:id="rId3"/>
     <sheet name="huehue" sheetId="4" r:id="rId4"/>
     <sheet name="taller" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2771,7 +2772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4858B3EB-CDC9-47CF-83A7-429BC710B62C}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3880,4 +3881,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE97327-9DE5-40DD-AD73-BDFAEFE132CD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://copregatit-my.sharepoint.com/personal/shannon_cap_transparencia_gob_gt/Documents/Documentos/GitHub/sistematizacion_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3E49982F-E771-4765-9999-7D454F11808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A46D5B-A88E-41C2-9421-43C9A802B65C}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3E49982F-E771-4765-9999-7D454F11808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DBD1147-08C7-4C28-92BF-E48CDA579EAA}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="585" windowWidth="23445" windowHeight="14745" activeTab="5" xr2:uid="{F46115C4-AD7F-4302-BE6E-0AA369B82E4D}"/>
+    <workbookView xWindow="1950" yWindow="855" windowWidth="19845" windowHeight="14745" activeTab="5" xr2:uid="{F46115C4-AD7F-4302-BE6E-0AA369B82E4D}"/>
   </bookViews>
   <sheets>
     <sheet name="LAC4" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="quiche" sheetId="3" r:id="rId3"/>
     <sheet name="huehue" sheetId="4" r:id="rId4"/>
     <sheet name="taller" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
+    <sheet name="chimal" sheetId="6" r:id="rId6"/>
+    <sheet name="solola" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="458">
   <si>
     <t>Sector</t>
   </si>
@@ -1237,6 +1238,228 @@
   </si>
   <si>
     <t>aldea ilom</t>
+  </si>
+  <si>
+    <t>Sololá</t>
+  </si>
+  <si>
+    <t>Ayuda a tener acceso a la información de las instituciones del Estado sobre toda transparencia de gastos.</t>
+  </si>
+  <si>
+    <t>Presupuesto, Proyectos, Documentos, Datos estadísticos, Actividades del gobierno, Programas de apoyo, Datos de salud y nutrición.</t>
+  </si>
+  <si>
+    <t>Sí, para la toma de decisiones y ver la calidad de proyectos a realizarse o realizados.</t>
+  </si>
+  <si>
+    <t>Conocer más sobre las inversiones públicas que realizan las municipalidades e instituciones públicas.</t>
+  </si>
+  <si>
+    <t>Facilitar información concreta para verificar presupuestos en nuestra comunidad a nivel local y municipal.</t>
+  </si>
+  <si>
+    <t>Salud, Educación, Ambiente, Alumbrado público, Violencia contra la mujer, Desnutrición, Migración, Violencia intrafamiliar, Mal uso de la tecnología, Desintegración familiar, Matrimonios prematuros.</t>
+  </si>
+  <si>
+    <t>Para tener acceso a los datos e información de la ejecución de proyectos para el análisis correspondiente.</t>
+  </si>
+  <si>
+    <t>Listado de programas ejecutados, Listado de proveedores, Costo de proyectos y sus detalles.</t>
+  </si>
+  <si>
+    <t>Proporcionando acceso a información relevante para la toma de decisiones, como estadísticas de salud, educación y medio ambiente. Esto nos permite ver las necesidades de nuestra comunidad.</t>
+  </si>
+  <si>
+    <t>Información sobre servicios básicos como agua, electricidad y recolección de basura. Al tener datos de estos, podríamos darle una solución.</t>
+  </si>
+  <si>
+    <t>Poder eficientar y la eficacia de la ejecución municipal. Proyectos más acordes a la realidad, evitar sobregastos y costos excesivos. Conocer sobre fondos asignados y tener una comunidad más informada.</t>
+  </si>
+  <si>
+    <t>Información clara sobre fondos públicos, convenios entre partes como áreas protegidas y empresas eléctricas.</t>
+  </si>
+  <si>
+    <t>Conocer únicamente los datos no ayudaría, sino que debe existir un proceso de coordinación entre autoridades y comunidades, generando procesos de participación.</t>
+  </si>
+  <si>
+    <t>Información sobre los fondos otorgados en desarrollo.</t>
+  </si>
+  <si>
+    <t>Mejor comunicación en medios como radio y periódico sobre decisiones comunitarias y planes de desarrollo.</t>
+  </si>
+  <si>
+    <t>Información confiable y estadística sobre violencia, vivienda y educación.</t>
+  </si>
+  <si>
+    <t>Fiscalizar la ejecución de los fondos asignados para responder a las necesidades de desarrollo.</t>
+  </si>
+  <si>
+    <t>Datos estadísticos contables relacionados con educación, salud y violencia.</t>
+  </si>
+  <si>
+    <t>Conocer en qué se invierte el presupuesto a nivel local, departamental y nacional. Fomentar auditoría social para exigir transparencia.</t>
+  </si>
+  <si>
+    <t>Datos estadísticos de violencia, salud y temas locales accesibles en una página web.</t>
+  </si>
+  <si>
+    <t>Debe ser una herramienta para conocer la situación de una comunidad y que la autoridad incluya esto en planes y decisiones para mejorar.</t>
+  </si>
+  <si>
+    <t>Bases confiables de datos sobre educación, salud, violencia sexual y embarazo en adolescentes.</t>
+  </si>
+  <si>
+    <t>Ayudan positivamente para conocer en dónde y con quiénes se invierte el dinero.</t>
+  </si>
+  <si>
+    <t>Datos generales, documentos que apoyen en la verificación de gastos como facturas y recibos.</t>
+  </si>
+  <si>
+    <t>Es necesario rescatar el lago Atitlán con información efectiva y acciones directas.</t>
+  </si>
+  <si>
+    <t>No especificado.</t>
+  </si>
+  <si>
+    <t>Nos ayuda con la transparencia al conseguir datos exactos para el uso correcto del presupuesto.</t>
+  </si>
+  <si>
+    <t>Datos informativos correlativos que respalden el uso adecuado del presupuesto.</t>
+  </si>
+  <si>
+    <t>En saber qué constructoras se les otorgan los proyectos y el tiempo de ejecución.</t>
+  </si>
+  <si>
+    <t>Cantidad o estadísticas de violencia y actualización de datos del INE.</t>
+  </si>
+  <si>
+    <t>Chimaltenango</t>
+  </si>
+  <si>
+    <t>Los datos deben ser confiables y simplificados para ser entendibles por todos.</t>
+  </si>
+  <si>
+    <t>Información del Ministerio de Educación, salud, saneamiento y aguas residuales.</t>
+  </si>
+  <si>
+    <t>Proporcionar información real para garantizar un desarrollo equitativo y resolver problemas locales.</t>
+  </si>
+  <si>
+    <t>Datos sobre fondos asignados, proyectos realizados y servicios básicos.</t>
+  </si>
+  <si>
+    <t>Facilitar la toma de decisiones comunitarias con información clara y accesible.</t>
+  </si>
+  <si>
+    <t>Estadísticas sobre educación, salud y acceso a recursos comunitarios.</t>
+  </si>
+  <si>
+    <t>Incrementar la transparencia y el control ciudadano sobre los proyectos del gobierno.</t>
+  </si>
+  <si>
+    <t>Datos económicos, proyectos ejecutados y detalles de presupuestos.</t>
+  </si>
+  <si>
+    <t>Apoyar la planificación y monitoreo de recursos asignados para comunidades vulnerables.</t>
+  </si>
+  <si>
+    <t>Estudios socioeconómicos, datos estadísticos y proyecciones de desarrollo.</t>
+  </si>
+  <si>
+    <t>Generar confianza entre las comunidades mediante la información pública sobre presupuestos.</t>
+  </si>
+  <si>
+    <t>Información sobre proyectos educativos y detalles de los contratos públicos.</t>
+  </si>
+  <si>
+    <t>Reducir la corrupción mediante la vigilancia de fondos asignados y proyectos ejecutados.</t>
+  </si>
+  <si>
+    <t>Censo poblacional, estadísticas de salud y proyectos ejecutados.</t>
+  </si>
+  <si>
+    <t>Promover la igualdad mediante la distribución justa de recursos basados en datos.</t>
+  </si>
+  <si>
+    <t>Mapeo de recursos comunitarios y análisis de necesidades locales.</t>
+  </si>
+  <si>
+    <t>Facilitar la participación activa de la comunidad en la toma de decisiones basadas en datos.</t>
+  </si>
+  <si>
+    <t>Proyecciones económicas y estadísticas poblacionales.</t>
+  </si>
+  <si>
+    <t>Mejorar la rendición de cuentas sobre el uso de recursos asignados a las comunidades.</t>
+  </si>
+  <si>
+    <t>Contratos públicos, presupuestos ejecutados y estadísticas de progreso.</t>
+  </si>
+  <si>
+    <t>Fortalecer las capacidades locales mediante el acceso a datos relevantes y actualizados.</t>
+  </si>
+  <si>
+    <t>Información sobre fondos de desarrollo y ejecución de proyectos.</t>
+  </si>
+  <si>
+    <t>Proporcionar un control transparente sobre los recursos asignados para proyectos locales.</t>
+  </si>
+  <si>
+    <t>Listados de proyectos, estadísticas de educación y salud, y datos poblacionales.</t>
+  </si>
+  <si>
+    <t>Facilitar la gestión comunitaria mediante información confiable y actualizada sobre recursos.</t>
+  </si>
+  <si>
+    <t>Censos poblacionales, estadísticas de pobreza y estudios de impacto social.</t>
+  </si>
+  <si>
+    <t>Incrementar la participación ciudadana en la toma de decisiones basadas en datos abiertos.</t>
+  </si>
+  <si>
+    <t>Datos sobre obras públicas, presupuestos locales y estadísticas de seguridad.</t>
+  </si>
+  <si>
+    <t>Promover la planificación estratégica en la asignación de recursos locales.</t>
+  </si>
+  <si>
+    <t>Proyecciones económicas, detalles de proyectos en ejecución y mapas de recursos comunitarios.</t>
+  </si>
+  <si>
+    <t>Mejorar la confianza entre ciudadanos y autoridades mediante la transparencia en los datos.</t>
+  </si>
+  <si>
+    <t>Información sobre educación, salud y estadísticas laborales.</t>
+  </si>
+  <si>
+    <t>Permitir a las comunidades priorizar sus necesidades con base en datos claros y accesibles.</t>
+  </si>
+  <si>
+    <t>Datos poblacionales, presupuestos de proyectos y registros de acceso a servicios básicos.</t>
+  </si>
+  <si>
+    <t>Reducir las desigualdades en la asignación de recursos públicos al visibilizar las necesidades.</t>
+  </si>
+  <si>
+    <t>Censos demográficos, estudios de salud pública y estadísticas de empleo.</t>
+  </si>
+  <si>
+    <t>Facilitar el monitoreo de la implementación de proyectos mediante acceso a datos públicos.</t>
+  </si>
+  <si>
+    <t>Estadísticas de proyectos ejecutados, datos poblacionales y recursos financieros asignados.</t>
+  </si>
+  <si>
+    <t>Mejorar la equidad en la distribución de recursos basándose en datos reales y auditables.</t>
+  </si>
+  <si>
+    <t>Datos educativos, sanitarios y mapas de pobreza.</t>
+  </si>
+  <si>
+    <t>Aumentar la eficiencia en la gestión de recursos mediante el acceso a datos abiertos confiables.</t>
+  </si>
+  <si>
+    <t>Información sobre presupuestos, proyectos educativos y estadísticas de salud pública.</t>
   </si>
 </sst>
 </file>
@@ -1563,6 +1786,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3095,7 +3322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63177CDF-3E75-4145-A6B7-A153F21E1FD3}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3885,14 +4114,448 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE97327-9DE5-40DD-AD73-BDFAEFE132CD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" t="s">
+        <v>450</v>
+      </c>
+      <c r="C19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" t="s">
+        <v>454</v>
+      </c>
+      <c r="C21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>415</v>
+      </c>
+      <c r="B22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BBFEC1-91B5-40CD-9253-CD53A13BE8DF}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>